--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sele-Cd44.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sele-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="H2">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="I2">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="J2">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N2">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O2">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P2">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q2">
-        <v>245.4223359171012</v>
+        <v>294.75694712895</v>
       </c>
       <c r="R2">
-        <v>245.4223359171012</v>
+        <v>1179.0277885158</v>
       </c>
       <c r="S2">
-        <v>0.02363463255009806</v>
+        <v>0.02307391168877801</v>
       </c>
       <c r="T2">
-        <v>0.02363463255009806</v>
+        <v>0.01447033651834373</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="H3">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="I3">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="J3">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N3">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P3">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q3">
-        <v>1386.447201602149</v>
+        <v>1739.38205898402</v>
       </c>
       <c r="R3">
-        <v>1386.447201602149</v>
+        <v>10436.29235390412</v>
       </c>
       <c r="S3">
-        <v>0.1335174732060531</v>
+        <v>0.1361608213579584</v>
       </c>
       <c r="T3">
-        <v>0.1335174732060531</v>
+        <v>0.1280857532246251</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="H4">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="I4">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="J4">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N4">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O4">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P4">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q4">
-        <v>2796.90477248234</v>
+        <v>3612.901602238454</v>
       </c>
       <c r="R4">
-        <v>2796.90477248234</v>
+        <v>21677.40961343072</v>
       </c>
       <c r="S4">
-        <v>0.2693471901333556</v>
+        <v>0.2828220787407761</v>
       </c>
       <c r="T4">
-        <v>0.2693471901333556</v>
+        <v>0.2660492102117392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="H5">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="I5">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="J5">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N5">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O5">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P5">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q5">
-        <v>1914.45634132803</v>
+        <v>2275.62003028562</v>
       </c>
       <c r="R5">
-        <v>1914.45634132803</v>
+        <v>13653.72018171372</v>
       </c>
       <c r="S5">
-        <v>0.1843657464648075</v>
+        <v>0.1781381444185396</v>
       </c>
       <c r="T5">
-        <v>0.1843657464648075</v>
+        <v>0.1675735955345137</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="H6">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="I6">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="J6">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N6">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O6">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P6">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q6">
-        <v>214.8545323401199</v>
+        <v>272.9569401647267</v>
       </c>
       <c r="R6">
-        <v>214.8545323401199</v>
+        <v>1637.74164098836</v>
       </c>
       <c r="S6">
-        <v>0.02069089557234573</v>
+        <v>0.02136738215518511</v>
       </c>
       <c r="T6">
-        <v>0.02069089557234573</v>
+        <v>0.02010018161237637</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="H7">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="I7">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="J7">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N7">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O7">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P7">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q7">
-        <v>1030.000998831993</v>
+        <v>1330.46042541303</v>
       </c>
       <c r="R7">
-        <v>1030.000998831993</v>
+        <v>5321.84170165212</v>
       </c>
       <c r="S7">
-        <v>0.09919103345936271</v>
+        <v>0.1041499671523065</v>
       </c>
       <c r="T7">
-        <v>0.09919103345936271</v>
+        <v>0.06531554308588651</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="H8">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="I8">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="J8">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N8">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O8">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P8">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q8">
-        <v>1.307599858999076</v>
+        <v>2.1610089319</v>
       </c>
       <c r="R8">
-        <v>1.307599858999076</v>
+        <v>12.9660535914</v>
       </c>
       <c r="S8">
-        <v>0.0001259243258137767</v>
+        <v>0.000169166256263019</v>
       </c>
       <c r="T8">
-        <v>0.0001259243258137767</v>
+        <v>0.0001591337885416795</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="H9">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="I9">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="J9">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N9">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P9">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q9">
-        <v>7.386932238869249</v>
+        <v>12.75226997044</v>
       </c>
       <c r="R9">
-        <v>7.386932238869249</v>
+        <v>114.77042973396</v>
       </c>
       <c r="S9">
-        <v>0.0007113754682749009</v>
+        <v>0.0009982623106781685</v>
       </c>
       <c r="T9">
-        <v>0.0007113754682749009</v>
+        <v>0.001408589989805036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="H10">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="I10">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="J10">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N10">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O10">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P10">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q10">
-        <v>14.90179071299807</v>
+        <v>26.48796816686222</v>
       </c>
       <c r="R10">
-        <v>14.90179071299807</v>
+        <v>238.39171350176</v>
       </c>
       <c r="S10">
-        <v>0.00143507047361467</v>
+        <v>0.002073508510148747</v>
       </c>
       <c r="T10">
-        <v>0.00143507047361467</v>
+        <v>0.002925807475579128</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="H11">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="I11">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="J11">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N11">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O11">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P11">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q11">
-        <v>10.20014267497641</v>
+        <v>16.68369569897333</v>
       </c>
       <c r="R11">
-        <v>10.20014267497641</v>
+        <v>150.15326129076</v>
       </c>
       <c r="S11">
-        <v>0.0009822929244837461</v>
+        <v>0.001306018823136152</v>
       </c>
       <c r="T11">
-        <v>0.0009822929244837461</v>
+        <v>0.001842847336905643</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="H12">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="I12">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="J12">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N12">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O12">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P12">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q12">
-        <v>1.14473589024982</v>
+        <v>2.001182301097777</v>
       </c>
       <c r="R12">
-        <v>1.14473589024982</v>
+        <v>18.01064070988</v>
       </c>
       <c r="S12">
-        <v>0.0001102402193014032</v>
+        <v>0.0001566548444012587</v>
       </c>
       <c r="T12">
-        <v>0.0001102402193014032</v>
+        <v>0.0002210465559179246</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="H13">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="I13">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="J13">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N13">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O13">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P13">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q13">
-        <v>5.487801897935459</v>
+        <v>9.754263269659999</v>
       </c>
       <c r="R13">
-        <v>5.487801897935459</v>
+        <v>58.52557961796</v>
       </c>
       <c r="S13">
-        <v>0.0005284856444738841</v>
+        <v>0.0007635749096517915</v>
       </c>
       <c r="T13">
-        <v>0.0005284856444738841</v>
+        <v>0.000718290815748361</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.64741635977894</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="H14">
-        <v>4.64741635977894</v>
+        <v>0.163725</v>
       </c>
       <c r="I14">
-        <v>0.2653596395580149</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="J14">
-        <v>0.2653596395580149</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N14">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O14">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P14">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q14">
-        <v>89.12138558018759</v>
+        <v>1.0681414906875</v>
       </c>
       <c r="R14">
-        <v>89.12138558018759</v>
+        <v>6.408848944125</v>
       </c>
       <c r="S14">
-        <v>0.008582557054851052</v>
+        <v>8.361534025680109E-05</v>
       </c>
       <c r="T14">
-        <v>0.008582557054851052</v>
+        <v>7.865650141585098E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.64741635977894</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="H15">
-        <v>4.64741635977894</v>
+        <v>0.163725</v>
       </c>
       <c r="I15">
-        <v>0.2653596395580149</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="J15">
-        <v>0.2653596395580149</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N15">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P15">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q15">
-        <v>503.4671973878286</v>
+        <v>6.303180174225001</v>
       </c>
       <c r="R15">
-        <v>503.4671973878286</v>
+        <v>56.72862156802501</v>
       </c>
       <c r="S15">
-        <v>0.04848483805201967</v>
+        <v>0.0004934201691093562</v>
       </c>
       <c r="T15">
-        <v>0.04848483805201967</v>
+        <v>0.0006962365538003549</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>4.64741635977894</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="H16">
-        <v>4.64741635977894</v>
+        <v>0.163725</v>
       </c>
       <c r="I16">
-        <v>0.2653596395580149</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="J16">
-        <v>0.2653596395580149</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N16">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O16">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P16">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q16">
-        <v>1015.653394903966</v>
+        <v>13.09244833993334</v>
       </c>
       <c r="R16">
-        <v>1015.653394903966</v>
+        <v>117.8320350594</v>
       </c>
       <c r="S16">
-        <v>0.09780933221548002</v>
+        <v>0.001024891863374302</v>
       </c>
       <c r="T16">
-        <v>0.09780933221548002</v>
+        <v>0.001446165405564523</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>4.64741635977894</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="H17">
-        <v>4.64741635977894</v>
+        <v>0.163725</v>
       </c>
       <c r="I17">
-        <v>0.2653596395580149</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="J17">
-        <v>0.2653596395580149</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N17">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O17">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P17">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q17">
-        <v>695.2056793622984</v>
+        <v>8.246401637225</v>
       </c>
       <c r="R17">
-        <v>695.2056793622984</v>
+        <v>74.21761473502499</v>
       </c>
       <c r="S17">
-        <v>0.06694961449645422</v>
+        <v>0.0006455377726662436</v>
       </c>
       <c r="T17">
-        <v>0.06694961449645422</v>
+        <v>0.0009108808725844601</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>4.64741635977894</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="H18">
-        <v>4.64741635977894</v>
+        <v>0.163725</v>
       </c>
       <c r="I18">
-        <v>0.2653596395580149</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="J18">
-        <v>0.2653596395580149</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N18">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O18">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P18">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q18">
-        <v>78.02115300052628</v>
+        <v>0.9891425318416668</v>
       </c>
       <c r="R18">
-        <v>78.02115300052628</v>
+        <v>8.902282786575</v>
       </c>
       <c r="S18">
-        <v>0.007513583779616893</v>
+        <v>7.743121120515663E-05</v>
       </c>
       <c r="T18">
-        <v>0.007513583779616893</v>
+        <v>0.0001092586866551812</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1594,49 +1594,421 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>4.64741635977894</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="H19">
-        <v>4.64741635977894</v>
+        <v>0.163725</v>
       </c>
       <c r="I19">
-        <v>0.2653596395580149</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="J19">
-        <v>0.2653596395580149</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N19">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O19">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P19">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q19">
-        <v>374.0291845151819</v>
+        <v>4.821328202587501</v>
       </c>
       <c r="R19">
-        <v>374.0291845151819</v>
+        <v>28.927969215525</v>
       </c>
       <c r="S19">
-        <v>0.03601971395959308</v>
+        <v>0.0003774190981848194</v>
       </c>
       <c r="T19">
-        <v>0.03601971395959308</v>
+        <v>0.0003550361182477975</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="H20">
+        <v>14.911546</v>
+      </c>
+      <c r="I20">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="J20">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>19.5719925</v>
+      </c>
+      <c r="N20">
+        <v>39.143985</v>
+      </c>
+      <c r="O20">
+        <v>0.03094210933382397</v>
+      </c>
+      <c r="P20">
+        <v>0.02187190777676379</v>
+      </c>
+      <c r="Q20">
+        <v>97.28288882513502</v>
+      </c>
+      <c r="R20">
+        <v>583.6973329508101</v>
+      </c>
+      <c r="S20">
+        <v>0.007615416048526133</v>
+      </c>
+      <c r="T20">
+        <v>0.007163780968462525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="H21">
+        <v>14.911546</v>
+      </c>
+      <c r="I21">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="J21">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>115.495743</v>
+      </c>
+      <c r="N21">
+        <v>346.487229</v>
+      </c>
+      <c r="O21">
+        <v>0.1825916246134488</v>
+      </c>
+      <c r="P21">
+        <v>0.1936015640337701</v>
+      </c>
+      <c r="Q21">
+        <v>574.0733615162261</v>
+      </c>
+      <c r="R21">
+        <v>5166.660253646035</v>
+      </c>
+      <c r="S21">
+        <v>0.04493912077570283</v>
+      </c>
+      <c r="T21">
+        <v>0.06341098426553958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="H22">
+        <v>14.911546</v>
+      </c>
+      <c r="I22">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="J22">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>239.8982746666667</v>
+      </c>
+      <c r="N22">
+        <v>719.694824</v>
+      </c>
+      <c r="O22">
+        <v>0.3792643310961689</v>
+      </c>
+      <c r="P22">
+        <v>0.4021332732970914</v>
+      </c>
+      <c r="Q22">
+        <v>1192.418052670879</v>
+      </c>
+      <c r="R22">
+        <v>10731.76247403791</v>
+      </c>
+      <c r="S22">
+        <v>0.0933438519818697</v>
+      </c>
+      <c r="T22">
+        <v>0.1317120902042086</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="H23">
+        <v>14.911546</v>
+      </c>
+      <c r="I23">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="J23">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>151.102183</v>
+      </c>
+      <c r="N23">
+        <v>453.306549</v>
+      </c>
+      <c r="O23">
+        <v>0.2388832034840335</v>
+      </c>
+      <c r="P23">
+        <v>0.2532874216646837</v>
+      </c>
+      <c r="Q23">
+        <v>751.0557175016394</v>
+      </c>
+      <c r="R23">
+        <v>6759.501457514754</v>
+      </c>
+      <c r="S23">
+        <v>0.05879350246969146</v>
+      </c>
+      <c r="T23">
+        <v>0.08296009792067989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="H24">
+        <v>14.911546</v>
+      </c>
+      <c r="I24">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="J24">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>18.12446233333333</v>
+      </c>
+      <c r="N24">
+        <v>54.373387</v>
+      </c>
+      <c r="O24">
+        <v>0.02865365369084289</v>
+      </c>
+      <c r="P24">
+        <v>0.03038141635232813</v>
+      </c>
+      <c r="Q24">
+        <v>90.08791793625579</v>
+      </c>
+      <c r="R24">
+        <v>810.7912614263021</v>
+      </c>
+      <c r="S24">
+        <v>0.007052185480051358</v>
+      </c>
+      <c r="T24">
+        <v>0.009950929497378656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="H25">
+        <v>14.911546</v>
+      </c>
+      <c r="I25">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="J25">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>88.3431645</v>
+      </c>
+      <c r="N25">
+        <v>176.686329</v>
+      </c>
+      <c r="O25">
+        <v>0.139665077781682</v>
+      </c>
+      <c r="P25">
+        <v>0.09872441687536272</v>
+      </c>
+      <c r="Q25">
+        <v>439.1110537424391</v>
+      </c>
+      <c r="R25">
+        <v>2634.666322454634</v>
+      </c>
+      <c r="S25">
+        <v>0.03437411662153887</v>
+      </c>
+      <c r="T25">
+        <v>0.03233554685548005</v>
       </c>
     </row>
   </sheetData>
